--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.849945269581085</v>
+        <v>15.849945330191318</v>
       </c>
       <c r="C2">
-        <v>7.5876267920244516</v>
+        <v>7.5876267907332817</v>
       </c>
       <c r="D2">
-        <v>26.821002777848953</v>
+        <v>26.821002823727376</v>
       </c>
       <c r="E2">
-        <v>8.6141480378694553</v>
+        <v>8.6141480662501664</v>
       </c>
       <c r="F2">
-        <v>61.330774048893275</v>
+        <v>61.330774049491396</v>
       </c>
       <c r="G2">
-        <v>2.3865412859478425</v>
+        <v>2.386541296343502</v>
       </c>
       <c r="H2">
-        <v>1.3803811819595637</v>
+        <v>1.3803812238089392</v>
       </c>
       <c r="I2">
-        <v>4.8639881358526011</v>
+        <v>4.8639881530544855</v>
       </c>
       <c r="J2">
-        <v>3.2104696130844843</v>
+        <v>3.2104696514639102</v>
       </c>
       <c r="K2">
-        <v>5.3767086138678053</v>
+        <v>5.3767086524872667</v>
       </c>
       <c r="L2">
-        <v>1.483071185629953</v>
+        <v>1.4830712284254304</v>
       </c>
       <c r="N2">
-        <v>0.6946738328880997</v>
+        <v>0.69467390339951862</v>
       </c>
       <c r="O2">
-        <v>-3.5056106829909268</v>
+        <v>-3.5056106483210669</v>
       </c>
       <c r="P2">
-        <v>13.991679705920205</v>
+        <v>13.991679707981866</v>
       </c>
       <c r="Q2">
-        <v>7.8530323060582674</v>
+        <v>7.8530323200395458</v>
       </c>
       <c r="S2">
-        <v>9.4857492663064846</v>
+        <v>9.4857492822114011</v>
       </c>
       <c r="V2">
-        <v>7.091592782626968</v>
+        <v>7.0915927942956358</v>
       </c>
       <c r="W2">
-        <v>-1.396702511680747</v>
+        <v>-1.3967025060362666</v>
       </c>
       <c r="X2">
-        <v>-2.3213253852428153</v>
+        <v>-2.3213253615616125</v>
       </c>
       <c r="AA2">
-        <v>-7.0834568509088314</v>
+        <v>-7.0834567991752806</v>
       </c>
       <c r="AB2">
-        <v>5.6086313022875345</v>
+        <v>5.6086313270478954</v>
       </c>
       <c r="AC2">
-        <v>1.5320151781317435</v>
+        <v>1.5320151824281396</v>
       </c>
       <c r="AD2">
-        <v>9.9825703464785391</v>
+        <v>9.9825703772998509</v>
       </c>
       <c r="AE2">
-        <v>27.950816028792708</v>
+        <v>27.95081603367165</v>
       </c>
       <c r="AF2">
-        <v>4.9298723496394103</v>
+        <v>4.9298723515699265</v>
       </c>
       <c r="AG2">
-        <v>0.26725712185562145</v>
+        <v>0.26725717196617893</v>
       </c>
       <c r="AH2">
-        <v>7.2851610671417504</v>
+        <v>7.285161074825858</v>
       </c>
       <c r="AI2">
-        <v>-6.8180373482669694</v>
+        <v>-6.8180373190993464</v>
       </c>
       <c r="AJ2">
-        <v>7.3779542568664311</v>
+        <v>7.377954269220524</v>
       </c>
       <c r="AK2">
-        <v>4.1684484536111768</v>
+        <v>4.168448481597693</v>
       </c>
       <c r="AL2">
-        <v>2.3909156683543173</v>
+        <v>2.3909156981393096</v>
       </c>
       <c r="AM2">
-        <v>2.0146105817406053</v>
+        <v>2.0146106503145162</v>
       </c>
       <c r="AN2">
-        <v>2.2935321849762005</v>
+        <v>2.2935322313837005</v>
       </c>
       <c r="AO2">
-        <v>4.4608522864089615</v>
+        <v>4.4608523126339463</v>
       </c>
       <c r="AQ2">
-        <v>2.7365071353426416</v>
+        <v>2.7365071669104495</v>
       </c>
       <c r="AR2">
-        <v>6.5289868646477345</v>
+        <v>6.5289868669682818</v>
       </c>
       <c r="AS2">
-        <v>-1.9077355163432514</v>
+        <v>-1.9077355102341329</v>
       </c>
       <c r="AU2">
-        <v>-2.926751555110485E-2</v>
+        <v>-2.926751333006905E-2</v>
       </c>
       <c r="AV2">
-        <v>6.3115875483035779</v>
+        <v>6.3115875871002984</v>
       </c>
       <c r="AW2">
-        <v>3.694235133421131E-2</v>
+        <v>3.6942370690994153E-2</v>
       </c>
       <c r="AX2">
-        <v>2.0572346459806283</v>
+        <v>2.0572346882643657</v>
       </c>
       <c r="AY2">
-        <v>-3.7900495957480942</v>
+        <v>-3.7900495778062151</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.1021062240533084</v>
+        <v>9.1021062669600781</v>
       </c>
       <c r="C3">
-        <v>3.5373888712792976</v>
+        <v>3.5373888969127734</v>
       </c>
       <c r="E3">
-        <v>8.9355244119731054</v>
+        <v>8.9355244309756543</v>
       </c>
       <c r="F3">
-        <v>11.007191246731502</v>
+        <v>11.007191271265015</v>
       </c>
       <c r="G3">
-        <v>0.63935084774149686</v>
+        <v>0.63935086976361788</v>
       </c>
       <c r="H3">
-        <v>1.0291245792068651</v>
+        <v>1.0291246170365866</v>
       </c>
       <c r="J3">
-        <v>3.1900563570835061</v>
+        <v>3.1900563961017809</v>
       </c>
       <c r="K3">
-        <v>-9.2246255315257599</v>
+        <v>-9.2246254988852172</v>
       </c>
       <c r="L3">
-        <v>-25.464175487395352</v>
+        <v>-25.464175440006798</v>
       </c>
       <c r="M3">
-        <v>11.336119747562272</v>
+        <v>11.336238731267549</v>
       </c>
       <c r="N3">
-        <v>3.3507602702274539</v>
+        <v>3.350760325816438</v>
       </c>
       <c r="P3">
-        <v>1.1112019741178116</v>
+        <v>1.1112020078938158</v>
       </c>
       <c r="Q3">
-        <v>7.9972202266417085</v>
+        <v>7.9972202595807929</v>
       </c>
       <c r="R3">
-        <v>7.188808926143949</v>
+        <v>7.1888089509839332</v>
       </c>
       <c r="W3">
-        <v>-1.2375328625410731</v>
+        <v>-1.2375328670850649</v>
       </c>
       <c r="AA3">
-        <v>-2.289913436817784</v>
+        <v>-2.2899133955789708</v>
       </c>
       <c r="AB3">
-        <v>5.0106694088881767</v>
+        <v>5.0106694174462945</v>
       </c>
       <c r="AC3">
-        <v>-0.66116175777663955</v>
+        <v>-0.66116172456106881</v>
       </c>
       <c r="AD3">
-        <v>10.678241571617122</v>
+        <v>10.678241622690194</v>
       </c>
       <c r="AE3">
-        <v>0.2098998457534762</v>
+        <v>0.20989986257160353</v>
       </c>
       <c r="AF3">
-        <v>1.1900998997627497</v>
+        <v>1.1900999166538071</v>
       </c>
       <c r="AG3">
-        <v>-8.4749104883112523</v>
+        <v>-8.4749104547870218</v>
       </c>
       <c r="AH3">
-        <v>-7.3150478453788139</v>
+        <v>-7.3150478404521664</v>
       </c>
       <c r="AI3">
-        <v>4.1178411909420021</v>
+        <v>4.1178412383877969</v>
       </c>
       <c r="AJ3">
-        <v>-4.2792721253338613</v>
+        <v>-4.2792720796436328</v>
       </c>
       <c r="AK3">
-        <v>-15.651222337691365</v>
+        <v>-15.651222287754337</v>
       </c>
       <c r="AL3">
-        <v>-4.0263087560210522</v>
+        <v>-4.0263087321975561</v>
       </c>
       <c r="AM3">
-        <v>3.3315826692561075</v>
+        <v>3.3315827087871526</v>
       </c>
       <c r="AN3">
-        <v>8.4695596847033983</v>
+        <v>8.4695597151135544</v>
       </c>
       <c r="AO3">
-        <v>0.63351131407119965</v>
+        <v>0.63351134209161586</v>
       </c>
       <c r="AP3">
-        <v>3.1596913032124689</v>
+        <v>3.1596913330250374</v>
       </c>
       <c r="AQ3">
-        <v>0.94081303951032424</v>
+        <v>0.94081305537213211</v>
       </c>
       <c r="AS3">
-        <v>9.0375300199052901</v>
+        <v>9.037530035346677</v>
       </c>
       <c r="AT3">
-        <v>4.9706742552927068</v>
+        <v>4.9706742931262369</v>
       </c>
       <c r="AU3">
-        <v>-2.9277003831781414</v>
+        <v>-2.9277003521221943</v>
       </c>
       <c r="AV3">
-        <v>-2.7219349598994711</v>
+        <v>-2.721934903560026</v>
       </c>
       <c r="AW3">
-        <v>2.9652526580434895</v>
+        <v>2.9652526821080798</v>
       </c>
       <c r="AX3">
-        <v>4.5249322712565601</v>
+        <v>4.5249323108298753</v>
       </c>
       <c r="AY3">
-        <v>3.2423907021164808</v>
+        <v>3.2423907415371858</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>15.849945330191318</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.5876267907332817</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>26.821002823727376</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.6141480662501664</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>61.330774049491396</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.386541296343502</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.3803812238089392</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.8639881530544855</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.2104696514639102</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.3767086524872667</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.4830712284254304</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.69467390339951862</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-3.5056106483210669</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.991679707981866</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.8530323200395458</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.4857492822114011</v>
+        <v>9.4857159522114003</v>
       </c>
       <c r="V2">
         <v>7.0915927942956358</v>
       </c>
       <c r="W2">
-        <v>-1.3967025060362666</v>
+        <v>-1.3967358360362674</v>
       </c>
       <c r="X2">
-        <v>-2.3213253615616125</v>
+        <v>-2.3212920315616117</v>
       </c>
       <c r="AA2">
-        <v>-7.0834567991752806</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.6086313270478954</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.5320151824281396</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.9825703772998509</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>27.95081603367165</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.9298723515699265</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.26725717196617893</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.285161074825858</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-6.8180373190993464</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.377954269220524</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.168448481597693</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.3909156981393096</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.0146106503145162</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.2935322313837005</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.4608523126339463</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.7365071669104495</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.5289868669682818</v>
+        <v>6.5290201969682826</v>
       </c>
       <c r="AS2">
         <v>-1.9077355102341329</v>
       </c>
       <c r="AU2">
-        <v>-2.926751333006905E-2</v>
+        <v>-2.923418333006822E-2</v>
       </c>
       <c r="AV2">
-        <v>6.3115875871002984</v>
+        <v>6.3115542571003047</v>
       </c>
       <c r="AW2">
-        <v>3.6942370690994153E-2</v>
+        <v>3.6975700690994984E-2</v>
       </c>
       <c r="AX2">
-        <v>2.0572346882643657</v>
+        <v>2.0572680182643595</v>
       </c>
       <c r="AY2">
-        <v>-3.7900495778062151</v>
+        <v>-3.7900162478062143</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>9.1021062669600781</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.5373888969127734</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.9355244309756543</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.007191271265015</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.63935086976361788</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.0291246170365866</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.1900563961017809</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-9.2246254988852172</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-25.464175440006798</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.336238731267549</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.350760325816438</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.1112020078938158</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.9972202595807929</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.1888089509839332</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-1.2375328670850649</v>
+        <v>-1.2374995370850712</v>
       </c>
       <c r="AA3">
-        <v>-2.2899133955789708</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.0106694174462945</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.66116172456106881</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>10.678241622690194</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.20989986257160353</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.1900999166538071</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-8.4749104547870218</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-7.3150478404521664</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.1178412383877969</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-4.2792720796436328</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-15.651222287754337</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-4.0263087321975561</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.3315827087871526</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.4695597151135544</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.63351134209161586</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.1596913330250374</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.94081305537213211</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>9.037530035346677</v>
+        <v>9.0375633653466849</v>
       </c>
       <c r="AT3">
         <v>4.9706742931262369</v>
       </c>
       <c r="AU3">
-        <v>-2.9277003521221943</v>
+        <v>-2.9276670221221934</v>
       </c>
       <c r="AV3">
-        <v>-2.721934903560026</v>
+        <v>-2.7219015735600181</v>
       </c>
       <c r="AW3">
         <v>2.9652526821080798</v>
       </c>
       <c r="AX3">
-        <v>4.5249323108298753</v>
+        <v>0.35163231082987068</v>
       </c>
       <c r="AY3">
-        <v>3.2423907415371858</v>
+        <v>-39.177575928462822</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.849911939581084</v>
-      </c>
-      <c r="C2">
-        <v>1.2809601220244531</v>
+        <v>-3.5055773183210661</v>
       </c>
       <c r="D2">
-        <v>26.821036107848947</v>
+        <v>2.2934989013837068</v>
       </c>
       <c r="E2">
-        <v>8.6141147078694544</v>
+        <v>2.7364738369104487</v>
       </c>
       <c r="F2">
         <v>61.330774048893275</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9.1021062240533084</v>
-      </c>
       <c r="C3">
-        <v>-4.3493111287207</v>
+        <v>7.1887756209839324</v>
+      </c>
+      <c r="D3">
+        <v>8.4695263851135536</v>
       </c>
       <c r="E3">
-        <v>8.9355577419730992</v>
+        <v>1.0364623561658632</v>
       </c>
       <c r="F3">
         <v>11.007191246731502</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.849911939581084</v>
+        <v>20.081307233399521</v>
       </c>
       <c r="C2">
-        <v>1.2809601220244531</v>
+        <v>-3.5055773183210661</v>
       </c>
       <c r="D2">
-        <v>26.821036107848947</v>
+        <v>-2.2053893496854897</v>
       </c>
       <c r="E2">
-        <v>8.6141147078694544</v>
+        <v>2.2934989013837068</v>
       </c>
       <c r="F2">
         <v>61.330774048893275</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.1021062240533084</v>
-      </c>
-      <c r="C3">
-        <v>-4.3493111287207</v>
+        <v>19.154126995816434</v>
+      </c>
+      <c r="D3">
+        <v>-13.778417291212854</v>
       </c>
       <c r="E3">
-        <v>8.9355577419730992</v>
+        <v>8.4695263851135536</v>
       </c>
       <c r="F3">
         <v>11.007191246731502</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15.849912000191317</v>
+      </c>
+      <c r="C2">
+        <v>1.2809601207332832</v>
+      </c>
+      <c r="D2">
+        <v>26.82103615372737</v>
+      </c>
+      <c r="E2">
+        <v>8.6141147362501655</v>
+      </c>
+      <c r="F2">
+        <v>61.330774049491396</v>
+      </c>
+      <c r="G2">
+        <v>2.3865079663435012</v>
+      </c>
+      <c r="H2">
+        <v>1.3803812238089392</v>
+      </c>
+      <c r="I2">
+        <v>4.8640214830544863</v>
+      </c>
+      <c r="J2">
+        <v>3.2104363214639022</v>
+      </c>
+      <c r="K2">
+        <v>-15.666624677512743</v>
+      </c>
+      <c r="L2">
+        <v>1.4830378984254367</v>
+      </c>
+      <c r="N2">
         <v>20.081307233399521</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-3.5055773183210661</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.991679707981866</v>
+      </c>
+      <c r="Q2">
+        <v>-17.490334349960456</v>
+      </c>
+      <c r="S2">
+        <v>9.4857159522114003</v>
+      </c>
+      <c r="V2">
+        <v>7.0915927942956358</v>
+      </c>
+      <c r="W2">
+        <v>-1.3967358360362674</v>
+      </c>
+      <c r="X2">
+        <v>-2.3212920315616117</v>
+      </c>
+      <c r="AA2">
+        <v>-7.0834901291752814</v>
+      </c>
+      <c r="AB2">
+        <v>15.068664657047897</v>
+      </c>
+      <c r="AC2">
+        <v>1.5320485124281404</v>
+      </c>
+      <c r="AD2">
+        <v>9.9826037072998517</v>
+      </c>
+      <c r="AE2">
+        <v>27.95081603367165</v>
+      </c>
+      <c r="AF2">
+        <v>4.9299056815699274</v>
+      </c>
+      <c r="AG2">
+        <v>0.26722384196617099</v>
+      </c>
+      <c r="AH2">
+        <v>7.2851944048258588</v>
+      </c>
+      <c r="AI2">
+        <v>-6.8180373190993464</v>
+      </c>
+      <c r="AJ2">
+        <v>5.5879875992205257</v>
+      </c>
+      <c r="AK2">
+        <v>4.168448481597693</v>
+      </c>
+      <c r="AL2">
+        <v>2.3909490281393104</v>
+      </c>
+      <c r="AM2">
         <v>-2.2053893496854897</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.2934989013837068</v>
       </c>
-      <c r="F2">
-        <v>61.330774048893275</v>
-      </c>
-      <c r="G2">
-        <v>2.3865079559478417</v>
-      </c>
-      <c r="H2">
-        <v>1.3803811819595637</v>
-      </c>
-      <c r="I2">
-        <v>4.864021465852602</v>
-      </c>
-      <c r="J2">
-        <v>3.2104362830844764</v>
-      </c>
-      <c r="K2">
-        <v>-15.666624716132205</v>
-      </c>
-      <c r="L2">
-        <v>1.4830378556299593</v>
-      </c>
-      <c r="N2">
-        <v>20.081307162888102</v>
-      </c>
-      <c r="O2">
-        <v>-3.505577352990926</v>
-      </c>
-      <c r="P2">
-        <v>13.991679705920205</v>
-      </c>
-      <c r="Q2">
-        <v>-17.490334363941734</v>
-      </c>
-      <c r="S2">
-        <v>9.4857159363064838</v>
-      </c>
-      <c r="V2">
-        <v>7.091592782626968</v>
-      </c>
-      <c r="W2">
-        <v>-1.3967358416807478</v>
-      </c>
-      <c r="X2">
-        <v>-2.3212920552428145</v>
-      </c>
-      <c r="AA2">
-        <v>-7.0834901809088322</v>
-      </c>
-      <c r="AB2">
-        <v>15.068664632287536</v>
-      </c>
-      <c r="AC2">
-        <v>1.5320485081317443</v>
-      </c>
-      <c r="AD2">
-        <v>9.98260367647854</v>
-      </c>
-      <c r="AE2">
-        <v>27.950816028792708</v>
-      </c>
-      <c r="AF2">
-        <v>4.9299056796394112</v>
-      </c>
-      <c r="AG2">
-        <v>0.26722379185561351</v>
-      </c>
-      <c r="AH2">
-        <v>7.2851943971417512</v>
-      </c>
-      <c r="AI2">
-        <v>-6.8180373482669694</v>
-      </c>
-      <c r="AJ2">
-        <v>5.5879875868664328</v>
-      </c>
-      <c r="AK2">
-        <v>4.1684484536111768</v>
-      </c>
-      <c r="AL2">
-        <v>2.3909489983543182</v>
-      </c>
-      <c r="AM2">
-        <v>-2.2053894182594007</v>
-      </c>
-      <c r="AN2">
-        <v>2.2934988549762068</v>
-      </c>
       <c r="AO2">
-        <v>4.4608856164089623</v>
+        <v>4.4608856426339472</v>
       </c>
       <c r="AQ2">
-        <v>2.7364738053426407</v>
+        <v>2.7364738369104487</v>
       </c>
       <c r="AR2">
-        <v>6.5290201946477353</v>
+        <v>6.5290201969682826</v>
       </c>
       <c r="AS2">
-        <v>-1.9077355163432514</v>
+        <v>-1.9077355102341329</v>
       </c>
       <c r="AU2">
-        <v>-2.9234185551104019E-2</v>
+        <v>-2.923418333006822E-2</v>
       </c>
       <c r="AV2">
-        <v>6.3115542183035842</v>
+        <v>6.3115542571003047</v>
       </c>
       <c r="AW2">
-        <v>3.697568133421214E-2</v>
+        <v>3.6975700690994984E-2</v>
       </c>
       <c r="AX2">
-        <v>2.0572679759806221</v>
+        <v>2.0572680182643595</v>
       </c>
       <c r="AY2">
-        <v>-3.7900162657480934</v>
+        <v>-3.7900162478062143</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9.1021062669600781</v>
+      </c>
+      <c r="C3">
+        <v>-4.3493111030872242</v>
+      </c>
+      <c r="E3">
+        <v>8.935557760975648</v>
+      </c>
+      <c r="F3">
+        <v>11.007191271265015</v>
+      </c>
+      <c r="G3">
+        <v>0.63938419976361871</v>
+      </c>
+      <c r="H3">
+        <v>1.0291579470365804</v>
+      </c>
+      <c r="J3">
+        <v>-9.5699436038982242</v>
+      </c>
+      <c r="K3">
+        <v>-9.2246254988852172</v>
+      </c>
+      <c r="L3">
+        <v>-25.464175440006798</v>
+      </c>
+      <c r="M3">
+        <v>11.336205401267549</v>
+      </c>
+      <c r="N3">
         <v>19.154126995816434</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.1112020078938158</v>
+      </c>
+      <c r="Q3">
+        <v>7.9972535895807937</v>
+      </c>
+      <c r="R3">
+        <v>7.1887756209839324</v>
+      </c>
+      <c r="W3">
+        <v>-1.2374995370850712</v>
+      </c>
+      <c r="AA3">
+        <v>-2.2898800655789699</v>
+      </c>
+      <c r="AB3">
+        <v>4.5407027474462893</v>
+      </c>
+      <c r="AC3">
+        <v>-0.66119505456106964</v>
+      </c>
+      <c r="AD3">
+        <v>10.678274952690195</v>
+      </c>
+      <c r="AE3">
+        <v>0.20993319257160437</v>
+      </c>
+      <c r="AF3">
+        <v>1.1900999166538071</v>
+      </c>
+      <c r="AG3">
+        <v>-8.4749104547870218</v>
+      </c>
+      <c r="AH3">
+        <v>-7.2482454044219935</v>
+      </c>
+      <c r="AI3">
+        <v>1.1778745683878071</v>
+      </c>
+      <c r="AJ3">
+        <v>-4.2792720796436328</v>
+      </c>
+      <c r="AK3">
+        <v>-15.651255617754344</v>
+      </c>
+      <c r="AL3">
+        <v>-4.0263087321975561</v>
+      </c>
+      <c r="AM3">
         <v>-13.778417291212854</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>8.4695263851135536</v>
       </c>
-      <c r="F3">
-        <v>11.007191246731502</v>
-      </c>
-      <c r="G3">
-        <v>0.63938417774149769</v>
-      </c>
-      <c r="H3">
-        <v>1.0291579092068588</v>
-      </c>
-      <c r="J3">
-        <v>-9.569943642916499</v>
-      </c>
-      <c r="K3">
-        <v>-9.2246255315257599</v>
-      </c>
-      <c r="L3">
-        <v>-25.464175487395352</v>
-      </c>
-      <c r="M3">
-        <v>11.336086417562271</v>
-      </c>
-      <c r="N3">
-        <v>19.154126940227449</v>
-      </c>
-      <c r="P3">
-        <v>1.1112019741178116</v>
-      </c>
-      <c r="Q3">
-        <v>7.9972535566417093</v>
-      </c>
-      <c r="R3">
-        <v>7.1887755961439481</v>
-      </c>
-      <c r="W3">
-        <v>-1.2374995325410794</v>
-      </c>
-      <c r="AA3">
-        <v>-2.2898801068177832</v>
-      </c>
-      <c r="AB3">
-        <v>4.5407027388881716</v>
-      </c>
-      <c r="AC3">
-        <v>-0.66119508777664038</v>
-      </c>
-      <c r="AD3">
-        <v>10.678274901617122</v>
-      </c>
-      <c r="AE3">
-        <v>0.20993317575347703</v>
-      </c>
-      <c r="AF3">
-        <v>1.1900998997627497</v>
-      </c>
-      <c r="AG3">
-        <v>-8.4749104883112523</v>
-      </c>
-      <c r="AH3">
-        <v>-7.2482454159004988</v>
-      </c>
-      <c r="AI3">
-        <v>1.1778745209420123</v>
-      </c>
-      <c r="AJ3">
-        <v>-4.2792721253338613</v>
-      </c>
-      <c r="AK3">
-        <v>-15.651255667691373</v>
-      </c>
-      <c r="AL3">
-        <v>-4.0263087560210522</v>
-      </c>
-      <c r="AM3">
-        <v>-13.778417330743899</v>
-      </c>
-      <c r="AN3">
-        <v>8.4695263547033974</v>
-      </c>
       <c r="AO3">
-        <v>0.63347798407119882</v>
+        <v>0.63347801209161503</v>
       </c>
       <c r="AP3">
-        <v>3.1597246332124698</v>
+        <v>3.1597246630250382</v>
       </c>
       <c r="AQ3">
-        <v>1.0364623451102162</v>
+        <v>1.0364623561658632</v>
       </c>
       <c r="AS3">
-        <v>9.0375633499052981</v>
+        <v>9.0375633653466849</v>
       </c>
       <c r="AT3">
-        <v>4.9706742552927068</v>
+        <v>4.9706742931262369</v>
       </c>
       <c r="AU3">
-        <v>-2.9276670531781406</v>
+        <v>-2.9276670221221934</v>
       </c>
       <c r="AV3">
-        <v>-2.7219016298994632</v>
+        <v>-2.7219015735600181</v>
       </c>
       <c r="AW3">
-        <v>2.9652526580434895</v>
+        <v>2.9652526821080798</v>
       </c>
       <c r="AX3">
-        <v>0.35163227125655538</v>
+        <v>0.35163231082987068</v>
       </c>
       <c r="AY3">
-        <v>-39.177575967883527</v>
+        <v>-39.177575928462822</v>
       </c>
     </row>
   </sheetData>
